--- a/Data/ВУЗЫ_ИНФО_ПО_ФАКУЛЬТЕТАМ.xlsx
+++ b/Data/ВУЗЫ_ИНФО_ПО_ФАКУЛЬТЕТАМ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12330"/>
+    <workbookView windowWidth="28800" windowHeight="12336" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Исходная таблица" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27370" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="207">
   <si>
     <t xml:space="preserve">Факультет</t>
   </si>
@@ -271,349 +271,376 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">200</t>
   </si>
   <si>
     <t xml:space="preserve">294</t>
   </si>
   <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Программная инженерия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Информационные системы и технологии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прикладная информатика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Системное и прикладное программное обеспечение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прикладная информатика Прикладная информатика в экономике Цифровые технологии Прикладная информатика в информационной безопасности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экономика Инвестиционные стратегии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экономика Системный анализ и экономика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экономика Финансовый контроль и государственный аудит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Информатика и вычислительная техника</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бизнес-информатика Информационные системы в бизнесе и логистике Цифровой бизнес</t>
+  </si>
+  <si>
     <t xml:space="preserve">66,67</t>
   </si>
   <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">291</t>
-  </si>
-  <si>
     <t xml:space="preserve">68,33</t>
   </si>
   <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">276</t>
-  </si>
-  <si>
     <t xml:space="preserve">63,33</t>
   </si>
   <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
     <t xml:space="preserve">41</t>
   </si>
   <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">196</t>
-  </si>
-  <si>
     <t xml:space="preserve">65,33</t>
   </si>
   <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">273</t>
-  </si>
-  <si>
     <t xml:space="preserve">73,33</t>
   </si>
   <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219</t>
-  </si>
-  <si>
     <t xml:space="preserve">56,67</t>
   </si>
   <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">231</t>
-  </si>
-  <si>
     <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
   </si>
 </sst>
 </file>
@@ -680,7 +707,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -700,9 +727,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
       </patternFill>
@@ -710,18 +734,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor rgb="FFF4F9F8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-        <bgColor rgb="FFF4F9F8"/>
       </patternFill>
     </fill>
   </fills>
@@ -1216,7 +1228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1481,10 +1493,75 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1499,30 +1576,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1806,21 +1901,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="71.5703125" customWidth="1"/>
-    <col min="2" max="2" width="76.28515625" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="71.5546875" customWidth="1"/>
+    <col min="2" max="2" width="76.33203125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1">
@@ -3547,7 +3642,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
@@ -3624,27 +3719,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="66.85546875" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" customWidth="1"/>
-    <col min="10" max="13" width="16" customWidth="1"/>
+    <col min="1" max="1" width="66.88671875" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="10" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="16" style="102" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="102"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="38.25">
+    <row r="1" spans="1:14" ht="39.6">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -3686,7 +3783,7 @@
       </c>
       <c r="N1"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
@@ -3694,16 +3791,16 @@
         <v>82</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>82</v>
@@ -3714,21 +3811,21 @@
       <c r="I2" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="98" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" s="98" t="s">
-        <v>82</v>
-      </c>
-      <c r="L2" s="98" t="s">
-        <v>82</v>
-      </c>
-      <c r="M2" s="99" t="s">
+      <c r="J2" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="93" t="s">
         <v>82</v>
       </c>
       <c r="N2"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="34" t="s">
         <v>82</v>
       </c>
@@ -3736,41 +3833,41 @@
         <v>40</v>
       </c>
       <c r="C3" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="G3" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="H3" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>89</v>
-      </c>
       <c r="J3" s="37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K3" s="36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L3" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="M3" s="94" t="s">
+        <v>88</v>
       </c>
       <c r="N3"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="13" t="s">
         <v>82</v>
       </c>
@@ -3778,41 +3875,41 @@
         <v>5</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="G4" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="H4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="N4"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="13" t="s">
         <v>82</v>
       </c>
@@ -3820,41 +3917,41 @@
         <v>6</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>101</v>
-      </c>
       <c r="N5"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="25" t="s">
         <v>82</v>
       </c>
@@ -3862,41 +3959,41 @@
         <v>31</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E6" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="27" t="s">
-        <v>103</v>
-      </c>
       <c r="G6" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="M6" s="121" t="s">
+        <v>100</v>
       </c>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="21" t="s">
         <v>10</v>
       </c>
@@ -3904,16 +4001,16 @@
         <v>82</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>82</v>
@@ -3933,12 +4030,12 @@
       <c r="L7" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="M7" s="97" t="s">
         <v>82</v>
       </c>
       <c r="N7"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
         <v>82</v>
       </c>
@@ -3946,41 +4043,41 @@
         <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>106</v>
+        <v>85</v>
+      </c>
+      <c r="M8" s="128" t="s">
+        <v>102</v>
       </c>
       <c r="N8"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="43" t="s">
         <v>82</v>
       </c>
@@ -3988,41 +4085,41 @@
         <v>12</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="M9" s="95" t="s">
+        <v>106</v>
       </c>
       <c r="N9"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="13" t="s">
         <v>82</v>
       </c>
@@ -4030,41 +4127,41 @@
         <v>80</v>
       </c>
       <c r="C10" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>111</v>
-      </c>
       <c r="N10"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="8" t="s">
         <v>82</v>
       </c>
@@ -4072,41 +4169,41 @@
         <v>14</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>112</v>
-      </c>
       <c r="N11"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="13" t="s">
         <v>82</v>
       </c>
@@ -4114,41 +4211,41 @@
         <v>6</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>113</v>
+        <v>96</v>
+      </c>
+      <c r="M12" s="95" t="s">
+        <v>109</v>
       </c>
       <c r="N12"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="13" t="s">
         <v>82</v>
       </c>
@@ -4156,41 +4253,41 @@
         <v>13</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="M13" s="95" t="s">
+        <v>112</v>
       </c>
       <c r="N13"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" s="8" t="s">
         <v>82</v>
       </c>
@@ -4198,41 +4295,41 @@
         <v>15</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
+      </c>
+      <c r="M14" s="95" t="s">
+        <v>115</v>
       </c>
       <c r="N14"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" s="13" t="s">
         <v>82</v>
       </c>
@@ -4240,41 +4337,41 @@
         <v>17</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+      <c r="M15" s="95" t="s">
+        <v>118</v>
       </c>
       <c r="N15"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" s="8" t="s">
         <v>82</v>
       </c>
@@ -4282,41 +4379,41 @@
         <v>19</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M16" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>122</v>
-      </c>
       <c r="N16"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" s="13" t="s">
         <v>82</v>
       </c>
@@ -4324,41 +4421,41 @@
         <v>18</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>119</v>
+        <v>114</v>
+      </c>
+      <c r="M17" s="95" t="s">
+        <v>115</v>
       </c>
       <c r="N17"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" s="8" t="s">
         <v>82</v>
       </c>
@@ -4366,41 +4463,41 @@
         <v>22</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>89</v>
+        <v>120</v>
+      </c>
+      <c r="M18" s="95" t="s">
+        <v>87</v>
       </c>
       <c r="N18"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" s="13" t="s">
         <v>82</v>
       </c>
@@ -4408,41 +4505,41 @@
         <v>16</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="M19" s="122" t="s">
+        <v>121</v>
       </c>
       <c r="N19"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" s="8" t="s">
         <v>82</v>
       </c>
@@ -4450,41 +4547,41 @@
         <v>20</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
+      </c>
+      <c r="M20" s="95" t="s">
+        <v>115</v>
       </c>
       <c r="N20"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" s="17" t="s">
         <v>82</v>
       </c>
@@ -4492,41 +4589,41 @@
         <v>21</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F21" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="M21" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="L21" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="M21" s="20" t="s">
-        <v>122</v>
-      </c>
       <c r="N21"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:14">
       <c r="A22" s="21" t="s">
         <v>23</v>
       </c>
@@ -4534,16 +4631,16 @@
         <v>82</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>82</v>
@@ -4563,12 +4660,12 @@
       <c r="L22" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="M22" s="24" t="s">
+      <c r="M22" s="97" t="s">
         <v>82</v>
       </c>
       <c r="N22"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="A23" s="13" t="s">
         <v>82</v>
       </c>
@@ -4576,41 +4673,41 @@
         <v>24</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="M23" s="92" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="M23" s="98" t="s">
+        <v>115</v>
       </c>
       <c r="N23"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14">
       <c r="A24" s="13" t="s">
         <v>82</v>
       </c>
@@ -4618,41 +4715,41 @@
         <v>25</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="M24" s="92" t="s">
-        <v>135</v>
+        <v>128</v>
+      </c>
+      <c r="M24" s="98" t="s">
+        <v>129</v>
       </c>
       <c r="N24"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14">
       <c r="A25" s="8" t="s">
         <v>82</v>
       </c>
@@ -4660,41 +4757,41 @@
         <v>26</v>
       </c>
       <c r="C25" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M25" s="123" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="K25" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M25" s="108" t="s">
-        <v>136</v>
-      </c>
-      <c r="N25" s="100"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="13" t="s">
         <v>82</v>
       </c>
@@ -4702,41 +4799,41 @@
         <v>27</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="M26" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>137</v>
-      </c>
       <c r="N26"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:14">
       <c r="A27" s="8" t="s">
         <v>82</v>
       </c>
@@ -4744,41 +4841,41 @@
         <v>81</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G27" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M27" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="K27" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>138</v>
-      </c>
       <c r="N27"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:14">
       <c r="A28" s="57" t="s">
         <v>29</v>
       </c>
@@ -4786,16 +4883,16 @@
         <v>82</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F28" s="59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G28" s="59" t="s">
         <v>82</v>
@@ -4815,12 +4912,12 @@
       <c r="L28" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="M28" s="60" t="s">
+      <c r="M28" s="99" t="s">
         <v>82</v>
       </c>
       <c r="N28"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:14">
       <c r="A29" s="90" t="s">
         <v>82</v>
       </c>
@@ -4828,41 +4925,41 @@
         <v>3</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E29" s="54" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F29" s="55" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G29" s="54" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H29" s="55" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I29" s="56" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J29" s="55" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K29" s="54" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L29" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="M29" s="56" t="s">
-        <v>140</v>
+        <v>114</v>
+      </c>
+      <c r="M29" s="100" t="s">
+        <v>134</v>
       </c>
       <c r="N29"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:14">
       <c r="A30" s="88" t="s">
         <v>82</v>
       </c>
@@ -4870,41 +4967,41 @@
         <v>40</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G30" s="50" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H30" s="51" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I30" s="52" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J30" s="51" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K30" s="50" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L30" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="M30" s="52" t="s">
-        <v>141</v>
+        <v>114</v>
+      </c>
+      <c r="M30" s="130" t="s">
+        <v>135</v>
       </c>
       <c r="N30"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14">
       <c r="A31" s="53" t="s">
         <v>82</v>
       </c>
@@ -4912,41 +5009,41 @@
         <v>6</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E31" s="50" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F31" s="51" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G31" s="50" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H31" s="51" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I31" s="66" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J31" s="51" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K31" s="50" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L31" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="M31" s="66" t="s">
-        <v>143</v>
+        <v>109</v>
+      </c>
+      <c r="M31" s="124" t="s">
+        <v>137</v>
       </c>
       <c r="N31"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:14">
       <c r="A32" s="21" t="s">
         <v>36</v>
       </c>
@@ -4954,16 +5051,16 @@
         <v>82</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>82</v>
@@ -4983,12 +5080,12 @@
       <c r="L32" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="M32" s="24" t="s">
+      <c r="M32" s="97" t="s">
         <v>82</v>
       </c>
       <c r="N32"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:14">
       <c r="A33" s="85" t="s">
         <v>82</v>
       </c>
@@ -4996,41 +5093,41 @@
         <v>40</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G33" s="45" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H33" s="44" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I33" s="61" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J33" s="44" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="K33" s="45" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L33" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="M33" s="93" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="M33" s="101" t="s">
+        <v>133</v>
       </c>
       <c r="N33"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:14">
       <c r="A34" s="86" t="s">
         <v>82</v>
       </c>
@@ -5038,41 +5135,41 @@
         <v>4</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I34" s="67" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J34" s="27" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="K34" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L34" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="M34" s="67" t="s">
-        <v>96</v>
+        <v>140</v>
+      </c>
+      <c r="M34" s="131" t="s">
+        <v>93</v>
       </c>
       <c r="N34"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:14">
       <c r="A35" s="87" t="s">
         <v>82</v>
       </c>
@@ -5080,41 +5177,41 @@
         <v>30</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I35" s="61" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="M35" s="93" t="s">
-        <v>96</v>
+        <v>111</v>
+      </c>
+      <c r="M35" s="132" t="s">
+        <v>93</v>
       </c>
       <c r="N35"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:14">
       <c r="A36" s="17" t="s">
         <v>82</v>
       </c>
@@ -5122,41 +5219,41 @@
         <v>28</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J36" s="27" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K36" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L36" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="M36" s="29" t="s">
         <v>96</v>
       </c>
+      <c r="M36" s="133" t="s">
+        <v>93</v>
+      </c>
       <c r="N36"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:14">
       <c r="A37" s="25" t="s">
         <v>82</v>
       </c>
@@ -5164,41 +5261,41 @@
         <v>33</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="M37" s="20" t="s">
-        <v>152</v>
+        <v>143</v>
+      </c>
+      <c r="M37" s="96" t="s">
+        <v>144</v>
       </c>
       <c r="N37"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:14">
       <c r="A38" s="17" t="s">
         <v>82</v>
       </c>
@@ -5206,41 +5303,41 @@
         <v>41</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I38" s="26" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J38" s="27" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="K38" s="28" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L38" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="M38" s="29" t="s">
-        <v>157</v>
+        <v>147</v>
+      </c>
+      <c r="M38" s="125" t="s">
+        <v>148</v>
       </c>
       <c r="N38"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:14">
       <c r="A39" s="25" t="s">
         <v>82</v>
       </c>
@@ -5248,41 +5345,41 @@
         <v>37</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="I39" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L39" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="M39" s="29" t="s">
-        <v>90</v>
+        <v>143</v>
+      </c>
+      <c r="M39" s="96" t="s">
+        <v>88</v>
       </c>
       <c r="N39"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:14">
       <c r="A40" s="17" t="s">
         <v>82</v>
       </c>
@@ -5290,41 +5387,41 @@
         <v>39</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E40" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="F40" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="F40" s="27" t="s">
-        <v>159</v>
-      </c>
       <c r="G40" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H40" s="27" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J40" s="27" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L40" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="M40" s="29" t="s">
-        <v>139</v>
+        <v>150</v>
+      </c>
+      <c r="M40" s="96" t="s">
+        <v>133</v>
       </c>
       <c r="N40"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:14">
       <c r="A41" s="25" t="s">
         <v>82</v>
       </c>
@@ -5332,41 +5429,41 @@
         <v>38</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E41" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="F41" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="F41" s="18" t="s">
-        <v>159</v>
-      </c>
       <c r="G41" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="M41" s="20" t="s">
-        <v>139</v>
+        <v>150</v>
+      </c>
+      <c r="M41" s="96" t="s">
+        <v>133</v>
       </c>
       <c r="N41"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:14">
       <c r="A42" s="30" t="s">
         <v>42</v>
       </c>
@@ -5374,16 +5471,16 @@
         <v>82</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G42" s="32" t="s">
         <v>82</v>
@@ -5403,12 +5500,12 @@
       <c r="L42" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="M42" s="33" t="s">
+      <c r="M42" s="97" t="s">
         <v>82</v>
       </c>
       <c r="N42"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:14">
       <c r="A43" s="90" t="s">
         <v>82</v>
       </c>
@@ -5416,41 +5513,41 @@
         <v>3</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E43" s="48" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G43" s="48" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H43" s="47" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="I43" s="49" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J43" s="47" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="K43" s="48" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L43" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="M43" s="49" t="s">
-        <v>162</v>
+        <v>152</v>
+      </c>
+      <c r="M43" s="101" t="s">
+        <v>153</v>
       </c>
       <c r="N43"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:14">
       <c r="A44" s="89" t="s">
         <v>82</v>
       </c>
@@ -5458,41 +5555,41 @@
         <v>40</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="M44" s="20" t="s">
-        <v>165</v>
+        <v>155</v>
+      </c>
+      <c r="M44" s="96" t="s">
+        <v>156</v>
       </c>
       <c r="N44"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:14">
       <c r="A45" s="62" t="s">
         <v>82</v>
       </c>
@@ -5500,41 +5597,41 @@
         <v>43</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="I45" s="29" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J45" s="27" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="K45" s="28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L45" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="M45" s="29" t="s">
-        <v>166</v>
+        <v>155</v>
+      </c>
+      <c r="M45" s="96" t="s">
+        <v>157</v>
       </c>
       <c r="N45"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:14">
       <c r="A46" s="17" t="s">
         <v>82</v>
       </c>
@@ -5542,41 +5639,41 @@
         <v>4</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="I46" s="29" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J46" s="27" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K46" s="28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L46" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="M46" s="29" t="s">
-        <v>112</v>
+        <v>150</v>
+      </c>
+      <c r="M46" s="96" t="s">
+        <v>108</v>
       </c>
       <c r="N46"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:14">
       <c r="A47" s="17" t="s">
         <v>82</v>
       </c>
@@ -5584,41 +5681,41 @@
         <v>30</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="I47" s="29" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J47" s="27" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="K47" s="28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L47" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="M47" s="29" t="s">
-        <v>169</v>
+        <v>159</v>
+      </c>
+      <c r="M47" s="96" t="s">
+        <v>160</v>
       </c>
       <c r="N47"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:14">
       <c r="A48" s="25" t="s">
         <v>82</v>
       </c>
@@ -5626,41 +5723,41 @@
         <v>30</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="I48" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L48" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="M48" s="20" t="s">
-        <v>90</v>
+        <v>162</v>
+      </c>
+      <c r="M48" s="96" t="s">
+        <v>88</v>
       </c>
       <c r="N48"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:14">
       <c r="A49" s="25" t="s">
         <v>82</v>
       </c>
@@ -5668,41 +5765,41 @@
         <v>28</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I49" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="K49" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="M49" s="20" t="s">
-        <v>174</v>
+        <v>164</v>
+      </c>
+      <c r="M49" s="96" t="s">
+        <v>165</v>
       </c>
       <c r="N49"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:14">
       <c r="A50" s="17" t="s">
         <v>82</v>
       </c>
@@ -5710,41 +5807,41 @@
         <v>5</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I50" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J50" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="J50" s="27" t="s">
-        <v>134</v>
-      </c>
       <c r="K50" s="28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L50" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="M50" s="110" t="s">
-        <v>175</v>
-      </c>
-      <c r="N50" s="102"/>
-    </row>
-    <row r="51" spans="1:13">
+        <v>128</v>
+      </c>
+      <c r="M50" s="134" t="s">
+        <v>166</v>
+      </c>
+      <c r="N50"/>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="25" t="s">
         <v>82</v>
       </c>
@@ -5752,41 +5849,41 @@
         <v>6</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="I51" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J51" s="18" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="K51" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L51" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="M51" s="20" t="s">
-        <v>128</v>
+        <v>155</v>
+      </c>
+      <c r="M51" s="96" t="s">
+        <v>123</v>
       </c>
       <c r="N51"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:14">
       <c r="A52" s="17" t="s">
         <v>82</v>
       </c>
@@ -5794,41 +5891,41 @@
         <v>31</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="I52" s="29" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J52" s="27" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="K52" s="28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L52" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="M52" s="29" t="s">
-        <v>176</v>
+        <v>162</v>
+      </c>
+      <c r="M52" s="96" t="s">
+        <v>167</v>
       </c>
       <c r="N52"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:14">
       <c r="A53" s="25" t="s">
         <v>82</v>
       </c>
@@ -5836,41 +5933,41 @@
         <v>44</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I53" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J53" s="18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K53" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L53" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="M53" s="20" t="s">
-        <v>178</v>
+        <v>112</v>
+      </c>
+      <c r="M53" s="96" t="s">
+        <v>169</v>
       </c>
       <c r="N53"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:14">
       <c r="A54" s="17" t="s">
         <v>82</v>
       </c>
@@ -5878,41 +5975,41 @@
         <v>45</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D54" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H54" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="I54" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J54" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="K54" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="L54" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="M54" s="96" t="s">
         <v>170</v>
       </c>
-      <c r="E54" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="H54" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="I54" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="J54" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="K54" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="L54" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="M54" s="29" t="s">
-        <v>179</v>
-      </c>
       <c r="N54"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:14">
       <c r="A55" s="25" t="s">
         <v>82</v>
       </c>
@@ -5920,41 +6017,41 @@
         <v>7</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K55" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L55" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="M55" s="20" t="s">
-        <v>180</v>
+        <v>150</v>
+      </c>
+      <c r="M55" s="96" t="s">
+        <v>171</v>
       </c>
       <c r="N55"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:14">
       <c r="A56" s="17" t="s">
         <v>82</v>
       </c>
@@ -5962,41 +6059,41 @@
         <v>8</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F56" s="27" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H56" s="27" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="I56" s="29" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J56" s="27" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="K56" s="28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L56" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="M56" s="29" t="s">
-        <v>129</v>
+        <v>162</v>
+      </c>
+      <c r="M56" s="96" t="s">
+        <v>124</v>
       </c>
       <c r="N56"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:14">
       <c r="A57" s="25" t="s">
         <v>82</v>
       </c>
@@ -6004,41 +6101,41 @@
         <v>32</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="I57" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J57" s="18" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="K57" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L57" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="M57" s="20" t="s">
-        <v>181</v>
+        <v>162</v>
+      </c>
+      <c r="M57" s="96" t="s">
+        <v>172</v>
       </c>
       <c r="N57"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:14">
       <c r="A58" s="17" t="s">
         <v>82</v>
       </c>
@@ -6046,41 +6143,41 @@
         <v>15</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F58" s="27" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G58" s="28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H58" s="27" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="I58" s="29" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J58" s="27" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="K58" s="28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L58" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="M58" s="29" t="s">
-        <v>162</v>
+        <v>174</v>
+      </c>
+      <c r="M58" s="96" t="s">
+        <v>153</v>
       </c>
       <c r="N58"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:14">
       <c r="A59" s="25" t="s">
         <v>82</v>
       </c>
@@ -6088,41 +6185,41 @@
         <v>17</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J59" s="18" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="K59" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L59" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="M59" s="20" t="s">
-        <v>165</v>
+        <v>143</v>
+      </c>
+      <c r="M59" s="96" t="s">
+        <v>156</v>
       </c>
       <c r="N59"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:14">
       <c r="A60" s="17" t="s">
         <v>82</v>
       </c>
@@ -6130,41 +6227,41 @@
         <v>46</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G60" s="28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H60" s="27" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I60" s="29" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J60" s="27" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="K60" s="28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L60" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="M60" s="29" t="s">
-        <v>186</v>
+        <v>176</v>
+      </c>
+      <c r="M60" s="96" t="s">
+        <v>177</v>
       </c>
       <c r="N60"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:14">
       <c r="A61" s="25" t="s">
         <v>82</v>
       </c>
@@ -6172,41 +6269,41 @@
         <v>47</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I61" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J61" s="18" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="K61" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L61" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="M61" s="20" t="s">
-        <v>189</v>
+        <v>179</v>
+      </c>
+      <c r="M61" s="126" t="s">
+        <v>180</v>
       </c>
       <c r="N61"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:14">
       <c r="A62" s="17" t="s">
         <v>82</v>
       </c>
@@ -6214,41 +6311,41 @@
         <v>18</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G62" s="28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H62" s="27" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="I62" s="29" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J62" s="27" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="K62" s="28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L62" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="M62" s="29" t="s">
-        <v>190</v>
+        <v>159</v>
+      </c>
+      <c r="M62" s="96" t="s">
+        <v>181</v>
       </c>
       <c r="N62"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:14">
       <c r="A63" s="25" t="s">
         <v>82</v>
       </c>
@@ -6256,41 +6353,41 @@
         <v>22</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J63" s="18" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="K63" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L63" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="M63" s="20" t="s">
-        <v>190</v>
+        <v>183</v>
+      </c>
+      <c r="M63" s="96" t="s">
+        <v>181</v>
       </c>
       <c r="N63"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:14">
       <c r="A64" s="17" t="s">
         <v>82</v>
       </c>
@@ -6298,41 +6395,41 @@
         <v>34</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F64" s="27" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H64" s="27" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="I64" s="29" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J64" s="27" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="K64" s="28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L64" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="M64" s="29" t="s">
-        <v>111</v>
+        <v>185</v>
+      </c>
+      <c r="M64" s="96" t="s">
+        <v>107</v>
       </c>
       <c r="N64"/>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:14">
       <c r="A65" s="25" t="s">
         <v>82</v>
       </c>
@@ -6340,41 +6437,41 @@
         <v>9</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I65" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J65" s="18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K65" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L65" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="M65" s="20" t="s">
-        <v>139</v>
+        <v>112</v>
+      </c>
+      <c r="M65" s="96" t="s">
+        <v>133</v>
       </c>
       <c r="N65"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:14">
       <c r="A66" s="17" t="s">
         <v>82</v>
       </c>
@@ -6382,2769 +6479,39 @@
         <v>35</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G66" s="28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H66" s="27" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="I66" s="29" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J66" s="27" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="K66" s="28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L66" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="M66" s="29" t="s">
-        <v>197</v>
+        <v>187</v>
+      </c>
+      <c r="M66" s="96" t="s">
+        <v>188</v>
       </c>
       <c r="N66"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" t="s">
-        <v>83</v>
-      </c>
-      <c r="E67" t="s">
-        <v>83</v>
-      </c>
-      <c r="F67" t="s">
-        <v>83</v>
-      </c>
-      <c r="G67" t="s">
-        <v>82</v>
-      </c>
-      <c r="H67" t="s">
-        <v>82</v>
-      </c>
-      <c r="I67" t="s">
-        <v>82</v>
-      </c>
-      <c r="J67" t="s">
-        <v>82</v>
-      </c>
-      <c r="K67" t="s">
-        <v>82</v>
-      </c>
-      <c r="L67" t="s">
-        <v>82</v>
-      </c>
-      <c r="M67" t="s">
-        <v>82</v>
-      </c>
-      <c r="N67"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>82</v>
-      </c>
-      <c r="B68" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" t="s">
-        <v>85</v>
-      </c>
-      <c r="E68" t="s">
-        <v>86</v>
-      </c>
-      <c r="F68" t="s">
-        <v>87</v>
-      </c>
-      <c r="G68" t="s">
-        <v>88</v>
-      </c>
-      <c r="H68" t="s">
-        <v>87</v>
-      </c>
-      <c r="I68" t="s">
-        <v>89</v>
-      </c>
-      <c r="J68" t="s">
-        <v>87</v>
-      </c>
-      <c r="K68" t="s">
-        <v>90</v>
-      </c>
-      <c r="L68" t="s">
-        <v>87</v>
-      </c>
-      <c r="M68" t="s">
-        <v>90</v>
-      </c>
-      <c r="N68"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" t="s">
-        <v>91</v>
-      </c>
-      <c r="D69" t="s">
-        <v>92</v>
-      </c>
-      <c r="E69" t="s">
-        <v>93</v>
-      </c>
-      <c r="F69" t="s">
-        <v>94</v>
-      </c>
-      <c r="G69" t="s">
-        <v>95</v>
-      </c>
-      <c r="H69" t="s">
-        <v>94</v>
-      </c>
-      <c r="I69" t="s">
-        <v>88</v>
-      </c>
-      <c r="J69" t="s">
-        <v>94</v>
-      </c>
-      <c r="K69" t="s">
-        <v>90</v>
-      </c>
-      <c r="L69" t="s">
-        <v>94</v>
-      </c>
-      <c r="M69" t="s">
-        <v>96</v>
-      </c>
-      <c r="N69"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>82</v>
-      </c>
-      <c r="B70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" t="s">
-        <v>97</v>
-      </c>
-      <c r="D70" t="s">
-        <v>98</v>
-      </c>
-      <c r="E70" t="s">
-        <v>99</v>
-      </c>
-      <c r="F70" t="s">
-        <v>100</v>
-      </c>
-      <c r="G70" t="s">
-        <v>89</v>
-      </c>
-      <c r="H70" t="s">
-        <v>100</v>
-      </c>
-      <c r="I70" t="s">
-        <v>89</v>
-      </c>
-      <c r="J70" t="s">
-        <v>100</v>
-      </c>
-      <c r="K70" t="s">
-        <v>90</v>
-      </c>
-      <c r="L70" t="s">
-        <v>100</v>
-      </c>
-      <c r="M70" t="s">
-        <v>101</v>
-      </c>
-      <c r="N70"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>82</v>
-      </c>
-      <c r="B71" t="s">
-        <v>31</v>
-      </c>
-      <c r="C71" t="s">
-        <v>97</v>
-      </c>
-      <c r="D71" t="s">
-        <v>102</v>
-      </c>
-      <c r="E71" t="s">
-        <v>99</v>
-      </c>
-      <c r="F71" t="s">
-        <v>103</v>
-      </c>
-      <c r="G71" t="s">
-        <v>89</v>
-      </c>
-      <c r="H71" t="s">
-        <v>103</v>
-      </c>
-      <c r="I71" t="s">
-        <v>89</v>
-      </c>
-      <c r="J71" t="s">
-        <v>103</v>
-      </c>
-      <c r="K71" t="s">
-        <v>90</v>
-      </c>
-      <c r="L71" t="s">
-        <v>103</v>
-      </c>
-      <c r="M71" t="s">
-        <v>104</v>
-      </c>
-      <c r="N71"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" t="s">
-        <v>82</v>
-      </c>
-      <c r="C72" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" t="s">
-        <v>83</v>
-      </c>
-      <c r="E72" t="s">
-        <v>83</v>
-      </c>
-      <c r="F72" t="s">
-        <v>83</v>
-      </c>
-      <c r="G72" t="s">
-        <v>82</v>
-      </c>
-      <c r="H72" t="s">
-        <v>82</v>
-      </c>
-      <c r="I72" t="s">
-        <v>82</v>
-      </c>
-      <c r="J72" t="s">
-        <v>82</v>
-      </c>
-      <c r="K72" t="s">
-        <v>82</v>
-      </c>
-      <c r="L72" t="s">
-        <v>82</v>
-      </c>
-      <c r="M72" t="s">
-        <v>82</v>
-      </c>
-      <c r="N72"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>82</v>
-      </c>
-      <c r="B73" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" t="s">
-        <v>105</v>
-      </c>
-      <c r="D73" t="s">
-        <v>85</v>
-      </c>
-      <c r="E73" t="s">
-        <v>95</v>
-      </c>
-      <c r="F73" t="s">
-        <v>87</v>
-      </c>
-      <c r="G73" t="s">
-        <v>88</v>
-      </c>
-      <c r="H73" t="s">
-        <v>87</v>
-      </c>
-      <c r="I73" t="s">
-        <v>88</v>
-      </c>
-      <c r="J73" t="s">
-        <v>87</v>
-      </c>
-      <c r="K73" t="s">
-        <v>90</v>
-      </c>
-      <c r="L73" t="s">
-        <v>87</v>
-      </c>
-      <c r="M73" t="s">
-        <v>106</v>
-      </c>
-      <c r="N73"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>82</v>
-      </c>
-      <c r="B74" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" t="s">
-        <v>107</v>
-      </c>
-      <c r="D74" t="s">
-        <v>108</v>
-      </c>
-      <c r="E74" t="s">
-        <v>90</v>
-      </c>
-      <c r="F74" t="s">
-        <v>109</v>
-      </c>
-      <c r="G74" t="s">
-        <v>90</v>
-      </c>
-      <c r="H74" t="s">
-        <v>109</v>
-      </c>
-      <c r="I74" t="s">
-        <v>90</v>
-      </c>
-      <c r="J74" t="s">
-        <v>109</v>
-      </c>
-      <c r="K74" t="s">
-        <v>90</v>
-      </c>
-      <c r="L74" t="s">
-        <v>109</v>
-      </c>
-      <c r="M74" t="s">
-        <v>110</v>
-      </c>
-      <c r="N74"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>82</v>
-      </c>
-      <c r="B75" t="s">
-        <v>80</v>
-      </c>
-      <c r="C75" t="s">
-        <v>107</v>
-      </c>
-      <c r="D75" t="s">
-        <v>102</v>
-      </c>
-      <c r="E75" t="s">
-        <v>90</v>
-      </c>
-      <c r="F75" t="s">
-        <v>103</v>
-      </c>
-      <c r="G75" t="s">
-        <v>90</v>
-      </c>
-      <c r="H75" t="s">
-        <v>103</v>
-      </c>
-      <c r="I75" t="s">
-        <v>90</v>
-      </c>
-      <c r="J75" t="s">
-        <v>103</v>
-      </c>
-      <c r="K75" t="s">
-        <v>90</v>
-      </c>
-      <c r="L75" t="s">
-        <v>103</v>
-      </c>
-      <c r="M75" t="s">
-        <v>111</v>
-      </c>
-      <c r="N75"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>82</v>
-      </c>
-      <c r="B76" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" t="s">
-        <v>107</v>
-      </c>
-      <c r="D76" t="s">
-        <v>108</v>
-      </c>
-      <c r="E76" t="s">
-        <v>90</v>
-      </c>
-      <c r="F76" t="s">
-        <v>109</v>
-      </c>
-      <c r="G76" t="s">
-        <v>90</v>
-      </c>
-      <c r="H76" t="s">
-        <v>109</v>
-      </c>
-      <c r="I76" t="s">
-        <v>90</v>
-      </c>
-      <c r="J76" t="s">
-        <v>109</v>
-      </c>
-      <c r="K76" t="s">
-        <v>90</v>
-      </c>
-      <c r="L76" t="s">
-        <v>109</v>
-      </c>
-      <c r="M76" t="s">
-        <v>112</v>
-      </c>
-      <c r="N76"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" t="s">
-        <v>107</v>
-      </c>
-      <c r="D77" t="s">
-        <v>98</v>
-      </c>
-      <c r="E77" t="s">
-        <v>90</v>
-      </c>
-      <c r="F77" t="s">
-        <v>100</v>
-      </c>
-      <c r="G77" t="s">
-        <v>90</v>
-      </c>
-      <c r="H77" t="s">
-        <v>100</v>
-      </c>
-      <c r="I77" t="s">
-        <v>90</v>
-      </c>
-      <c r="J77" t="s">
-        <v>100</v>
-      </c>
-      <c r="K77" t="s">
-        <v>90</v>
-      </c>
-      <c r="L77" t="s">
-        <v>100</v>
-      </c>
-      <c r="M77" t="s">
-        <v>113</v>
-      </c>
-      <c r="N77"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>82</v>
-      </c>
-      <c r="B78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" t="s">
-        <v>107</v>
-      </c>
-      <c r="D78" t="s">
-        <v>114</v>
-      </c>
-      <c r="E78" t="s">
-        <v>90</v>
-      </c>
-      <c r="F78" t="s">
-        <v>115</v>
-      </c>
-      <c r="G78" t="s">
-        <v>90</v>
-      </c>
-      <c r="H78" t="s">
-        <v>115</v>
-      </c>
-      <c r="I78" t="s">
-        <v>90</v>
-      </c>
-      <c r="J78" t="s">
-        <v>115</v>
-      </c>
-      <c r="K78" t="s">
-        <v>90</v>
-      </c>
-      <c r="L78" t="s">
-        <v>115</v>
-      </c>
-      <c r="M78" t="s">
-        <v>116</v>
-      </c>
-      <c r="N78"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" t="s">
-        <v>107</v>
-      </c>
-      <c r="D79" t="s">
-        <v>117</v>
-      </c>
-      <c r="E79" t="s">
-        <v>90</v>
-      </c>
-      <c r="F79" t="s">
-        <v>118</v>
-      </c>
-      <c r="G79" t="s">
-        <v>90</v>
-      </c>
-      <c r="H79" t="s">
-        <v>118</v>
-      </c>
-      <c r="I79" t="s">
-        <v>90</v>
-      </c>
-      <c r="J79" t="s">
-        <v>118</v>
-      </c>
-      <c r="K79" t="s">
-        <v>90</v>
-      </c>
-      <c r="L79" t="s">
-        <v>118</v>
-      </c>
-      <c r="M79" t="s">
-        <v>119</v>
-      </c>
-      <c r="N79"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" t="s">
-        <v>107</v>
-      </c>
-      <c r="D80" t="s">
-        <v>120</v>
-      </c>
-      <c r="E80" t="s">
-        <v>90</v>
-      </c>
-      <c r="F80" t="s">
-        <v>121</v>
-      </c>
-      <c r="G80" t="s">
-        <v>90</v>
-      </c>
-      <c r="H80" t="s">
-        <v>121</v>
-      </c>
-      <c r="I80" t="s">
-        <v>90</v>
-      </c>
-      <c r="J80" t="s">
-        <v>121</v>
-      </c>
-      <c r="K80" t="s">
-        <v>90</v>
-      </c>
-      <c r="L80" t="s">
-        <v>121</v>
-      </c>
-      <c r="M80" t="s">
-        <v>122</v>
-      </c>
-      <c r="N80"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" t="s">
-        <v>107</v>
-      </c>
-      <c r="D81" t="s">
-        <v>117</v>
-      </c>
-      <c r="E81" t="s">
-        <v>90</v>
-      </c>
-      <c r="F81" t="s">
-        <v>118</v>
-      </c>
-      <c r="G81" t="s">
-        <v>90</v>
-      </c>
-      <c r="H81" t="s">
-        <v>118</v>
-      </c>
-      <c r="I81" t="s">
-        <v>90</v>
-      </c>
-      <c r="J81" t="s">
-        <v>118</v>
-      </c>
-      <c r="K81" t="s">
-        <v>90</v>
-      </c>
-      <c r="L81" t="s">
-        <v>118</v>
-      </c>
-      <c r="M81" t="s">
-        <v>122</v>
-      </c>
-      <c r="N81"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82" t="s">
-        <v>107</v>
-      </c>
-      <c r="D82" t="s">
-        <v>117</v>
-      </c>
-      <c r="E82" t="s">
-        <v>90</v>
-      </c>
-      <c r="F82" t="s">
-        <v>118</v>
-      </c>
-      <c r="G82" t="s">
-        <v>90</v>
-      </c>
-      <c r="H82" t="s">
-        <v>118</v>
-      </c>
-      <c r="I82" t="s">
-        <v>90</v>
-      </c>
-      <c r="J82" t="s">
-        <v>118</v>
-      </c>
-      <c r="K82" t="s">
-        <v>90</v>
-      </c>
-      <c r="L82" t="s">
-        <v>118</v>
-      </c>
-      <c r="M82" t="s">
-        <v>119</v>
-      </c>
-      <c r="N82"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" t="s">
-        <v>107</v>
-      </c>
-      <c r="D83" t="s">
-        <v>123</v>
-      </c>
-      <c r="E83" t="s">
-        <v>90</v>
-      </c>
-      <c r="F83" t="s">
-        <v>124</v>
-      </c>
-      <c r="G83" t="s">
-        <v>90</v>
-      </c>
-      <c r="H83" t="s">
-        <v>124</v>
-      </c>
-      <c r="I83" t="s">
-        <v>90</v>
-      </c>
-      <c r="J83" t="s">
-        <v>124</v>
-      </c>
-      <c r="K83" t="s">
-        <v>90</v>
-      </c>
-      <c r="L83" t="s">
-        <v>124</v>
-      </c>
-      <c r="M83" t="s">
-        <v>89</v>
-      </c>
-      <c r="N83"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" t="s">
-        <v>107</v>
-      </c>
-      <c r="D84" t="s">
-        <v>123</v>
-      </c>
-      <c r="E84" t="s">
-        <v>90</v>
-      </c>
-      <c r="F84" t="s">
-        <v>124</v>
-      </c>
-      <c r="G84" t="s">
-        <v>90</v>
-      </c>
-      <c r="H84" t="s">
-        <v>124</v>
-      </c>
-      <c r="I84" t="s">
-        <v>90</v>
-      </c>
-      <c r="J84" t="s">
-        <v>124</v>
-      </c>
-      <c r="K84" t="s">
-        <v>90</v>
-      </c>
-      <c r="L84" t="s">
-        <v>124</v>
-      </c>
-      <c r="M84" t="s">
-        <v>125</v>
-      </c>
-      <c r="N84"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" t="s">
-        <v>20</v>
-      </c>
-      <c r="C85" t="s">
-        <v>107</v>
-      </c>
-      <c r="D85" t="s">
-        <v>117</v>
-      </c>
-      <c r="E85" t="s">
-        <v>90</v>
-      </c>
-      <c r="F85" t="s">
-        <v>118</v>
-      </c>
-      <c r="G85" t="s">
-        <v>90</v>
-      </c>
-      <c r="H85" t="s">
-        <v>118</v>
-      </c>
-      <c r="I85" t="s">
-        <v>90</v>
-      </c>
-      <c r="J85" t="s">
-        <v>118</v>
-      </c>
-      <c r="K85" t="s">
-        <v>90</v>
-      </c>
-      <c r="L85" t="s">
-        <v>118</v>
-      </c>
-      <c r="M85" t="s">
-        <v>119</v>
-      </c>
-      <c r="N85"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>82</v>
-      </c>
-      <c r="B86" t="s">
-        <v>21</v>
-      </c>
-      <c r="C86" t="s">
-        <v>126</v>
-      </c>
-      <c r="D86" t="s">
-        <v>117</v>
-      </c>
-      <c r="E86" t="s">
-        <v>127</v>
-      </c>
-      <c r="F86" t="s">
-        <v>118</v>
-      </c>
-      <c r="G86" t="s">
-        <v>128</v>
-      </c>
-      <c r="H86" t="s">
-        <v>118</v>
-      </c>
-      <c r="I86" t="s">
-        <v>129</v>
-      </c>
-      <c r="J86" t="s">
-        <v>118</v>
-      </c>
-      <c r="K86" t="s">
-        <v>104</v>
-      </c>
-      <c r="L86" t="s">
-        <v>118</v>
-      </c>
-      <c r="M86" t="s">
-        <v>122</v>
-      </c>
-      <c r="N86"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>23</v>
-      </c>
-      <c r="B87" t="s">
-        <v>82</v>
-      </c>
-      <c r="C87" t="s">
-        <v>83</v>
-      </c>
-      <c r="D87" t="s">
-        <v>83</v>
-      </c>
-      <c r="E87" t="s">
-        <v>83</v>
-      </c>
-      <c r="F87" t="s">
-        <v>83</v>
-      </c>
-      <c r="G87" t="s">
-        <v>82</v>
-      </c>
-      <c r="H87" t="s">
-        <v>82</v>
-      </c>
-      <c r="I87" t="s">
-        <v>82</v>
-      </c>
-      <c r="J87" t="s">
-        <v>82</v>
-      </c>
-      <c r="K87" t="s">
-        <v>82</v>
-      </c>
-      <c r="L87" t="s">
-        <v>82</v>
-      </c>
-      <c r="M87" t="s">
-        <v>82</v>
-      </c>
-      <c r="N87"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>82</v>
-      </c>
-      <c r="B88" t="s">
-        <v>24</v>
-      </c>
-      <c r="C88" t="s">
-        <v>130</v>
-      </c>
-      <c r="D88" t="s">
-        <v>120</v>
-      </c>
-      <c r="E88" t="s">
-        <v>131</v>
-      </c>
-      <c r="F88" t="s">
-        <v>121</v>
-      </c>
-      <c r="G88" t="s">
-        <v>132</v>
-      </c>
-      <c r="H88" t="s">
-        <v>121</v>
-      </c>
-      <c r="I88" t="s">
-        <v>95</v>
-      </c>
-      <c r="J88" t="s">
-        <v>121</v>
-      </c>
-      <c r="K88" t="s">
-        <v>95</v>
-      </c>
-      <c r="L88" t="s">
-        <v>121</v>
-      </c>
-      <c r="M88" t="s">
-        <v>119</v>
-      </c>
-      <c r="N88"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>82</v>
-      </c>
-      <c r="B89" t="s">
-        <v>25</v>
-      </c>
-      <c r="C89" t="s">
-        <v>130</v>
-      </c>
-      <c r="D89" t="s">
-        <v>133</v>
-      </c>
-      <c r="E89" t="s">
-        <v>131</v>
-      </c>
-      <c r="F89" t="s">
-        <v>134</v>
-      </c>
-      <c r="G89" t="s">
-        <v>132</v>
-      </c>
-      <c r="H89" t="s">
-        <v>134</v>
-      </c>
-      <c r="I89" t="s">
-        <v>95</v>
-      </c>
-      <c r="J89" t="s">
-        <v>134</v>
-      </c>
-      <c r="K89" t="s">
-        <v>95</v>
-      </c>
-      <c r="L89" t="s">
-        <v>134</v>
-      </c>
-      <c r="M89" t="s">
-        <v>135</v>
-      </c>
-      <c r="N89"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>82</v>
-      </c>
-      <c r="B90" t="s">
-        <v>26</v>
-      </c>
-      <c r="C90" t="s">
-        <v>130</v>
-      </c>
-      <c r="D90" t="s">
-        <v>98</v>
-      </c>
-      <c r="E90" t="s">
-        <v>131</v>
-      </c>
-      <c r="F90" t="s">
-        <v>100</v>
-      </c>
-      <c r="G90" t="s">
-        <v>132</v>
-      </c>
-      <c r="H90" t="s">
-        <v>100</v>
-      </c>
-      <c r="I90" t="s">
-        <v>95</v>
-      </c>
-      <c r="J90" t="s">
-        <v>100</v>
-      </c>
-      <c r="K90" t="s">
-        <v>95</v>
-      </c>
-      <c r="L90" t="s">
-        <v>100</v>
-      </c>
-      <c r="M90" s="109" t="s">
-        <v>136</v>
-      </c>
-      <c r="N90" s="101"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>82</v>
-      </c>
-      <c r="B91" t="s">
-        <v>27</v>
-      </c>
-      <c r="C91" t="s">
-        <v>130</v>
-      </c>
-      <c r="D91" t="s">
-        <v>114</v>
-      </c>
-      <c r="E91" t="s">
-        <v>131</v>
-      </c>
-      <c r="F91" t="s">
-        <v>115</v>
-      </c>
-      <c r="G91" t="s">
-        <v>132</v>
-      </c>
-      <c r="H91" t="s">
-        <v>115</v>
-      </c>
-      <c r="I91" t="s">
-        <v>95</v>
-      </c>
-      <c r="J91" t="s">
-        <v>115</v>
-      </c>
-      <c r="K91" t="s">
-        <v>95</v>
-      </c>
-      <c r="L91" t="s">
-        <v>115</v>
-      </c>
-      <c r="M91" t="s">
-        <v>137</v>
-      </c>
-      <c r="N91"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>82</v>
-      </c>
-      <c r="B92" t="s">
-        <v>81</v>
-      </c>
-      <c r="C92" t="s">
-        <v>130</v>
-      </c>
-      <c r="D92" t="s">
-        <v>123</v>
-      </c>
-      <c r="E92" t="s">
-        <v>131</v>
-      </c>
-      <c r="F92" t="s">
-        <v>124</v>
-      </c>
-      <c r="G92" t="s">
-        <v>132</v>
-      </c>
-      <c r="H92" t="s">
-        <v>124</v>
-      </c>
-      <c r="I92" t="s">
-        <v>95</v>
-      </c>
-      <c r="J92" t="s">
-        <v>124</v>
-      </c>
-      <c r="K92" t="s">
-        <v>95</v>
-      </c>
-      <c r="L92" t="s">
-        <v>124</v>
-      </c>
-      <c r="M92" t="s">
-        <v>138</v>
-      </c>
-      <c r="N92"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>29</v>
-      </c>
-      <c r="B93" t="s">
-        <v>82</v>
-      </c>
-      <c r="C93" t="s">
-        <v>83</v>
-      </c>
-      <c r="D93" t="s">
-        <v>83</v>
-      </c>
-      <c r="E93" t="s">
-        <v>83</v>
-      </c>
-      <c r="F93" t="s">
-        <v>83</v>
-      </c>
-      <c r="G93" t="s">
-        <v>82</v>
-      </c>
-      <c r="H93" t="s">
-        <v>82</v>
-      </c>
-      <c r="I93" t="s">
-        <v>82</v>
-      </c>
-      <c r="J93" t="s">
-        <v>82</v>
-      </c>
-      <c r="K93" t="s">
-        <v>82</v>
-      </c>
-      <c r="L93" t="s">
-        <v>82</v>
-      </c>
-      <c r="M93" t="s">
-        <v>82</v>
-      </c>
-      <c r="N93"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>82</v>
-      </c>
-      <c r="B94" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" t="s">
-        <v>106</v>
-      </c>
-      <c r="D94" t="s">
-        <v>117</v>
-      </c>
-      <c r="E94" t="s">
-        <v>139</v>
-      </c>
-      <c r="F94" t="s">
-        <v>118</v>
-      </c>
-      <c r="G94" t="s">
-        <v>139</v>
-      </c>
-      <c r="H94" t="s">
-        <v>118</v>
-      </c>
-      <c r="I94" t="s">
-        <v>139</v>
-      </c>
-      <c r="J94" t="s">
-        <v>118</v>
-      </c>
-      <c r="K94" t="s">
-        <v>139</v>
-      </c>
-      <c r="L94" t="s">
-        <v>118</v>
-      </c>
-      <c r="M94" t="s">
-        <v>140</v>
-      </c>
-      <c r="N94"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>82</v>
-      </c>
-      <c r="B95" t="s">
-        <v>40</v>
-      </c>
-      <c r="C95" t="s">
-        <v>106</v>
-      </c>
-      <c r="D95" t="s">
-        <v>117</v>
-      </c>
-      <c r="E95" t="s">
-        <v>139</v>
-      </c>
-      <c r="F95" t="s">
-        <v>118</v>
-      </c>
-      <c r="G95" t="s">
-        <v>139</v>
-      </c>
-      <c r="H95" t="s">
-        <v>118</v>
-      </c>
-      <c r="I95" t="s">
-        <v>139</v>
-      </c>
-      <c r="J95" t="s">
-        <v>118</v>
-      </c>
-      <c r="K95" t="s">
-        <v>139</v>
-      </c>
-      <c r="L95" t="s">
-        <v>118</v>
-      </c>
-      <c r="M95" t="s">
-        <v>141</v>
-      </c>
-      <c r="N95"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>82</v>
-      </c>
-      <c r="B96" t="s">
-        <v>6</v>
-      </c>
-      <c r="C96" t="s">
-        <v>106</v>
-      </c>
-      <c r="D96" t="s">
-        <v>142</v>
-      </c>
-      <c r="E96" t="s">
-        <v>139</v>
-      </c>
-      <c r="F96" t="s">
-        <v>113</v>
-      </c>
-      <c r="G96" t="s">
-        <v>139</v>
-      </c>
-      <c r="H96" t="s">
-        <v>113</v>
-      </c>
-      <c r="I96" t="s">
-        <v>139</v>
-      </c>
-      <c r="J96" t="s">
-        <v>113</v>
-      </c>
-      <c r="K96" t="s">
-        <v>139</v>
-      </c>
-      <c r="L96" t="s">
-        <v>113</v>
-      </c>
-      <c r="M96" t="s">
-        <v>143</v>
-      </c>
-      <c r="N96"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>36</v>
-      </c>
-      <c r="B97" t="s">
-        <v>82</v>
-      </c>
-      <c r="C97" t="s">
-        <v>83</v>
-      </c>
-      <c r="D97" t="s">
-        <v>83</v>
-      </c>
-      <c r="E97" t="s">
-        <v>83</v>
-      </c>
-      <c r="F97" t="s">
-        <v>83</v>
-      </c>
-      <c r="G97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H97" t="s">
-        <v>82</v>
-      </c>
-      <c r="I97" t="s">
-        <v>82</v>
-      </c>
-      <c r="J97" t="s">
-        <v>82</v>
-      </c>
-      <c r="K97" t="s">
-        <v>82</v>
-      </c>
-      <c r="L97" t="s">
-        <v>82</v>
-      </c>
-      <c r="M97" t="s">
-        <v>82</v>
-      </c>
-      <c r="N97"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>82</v>
-      </c>
-      <c r="B98" t="s">
-        <v>40</v>
-      </c>
-      <c r="C98" t="s">
-        <v>144</v>
-      </c>
-      <c r="D98" t="s">
-        <v>145</v>
-      </c>
-      <c r="E98" t="s">
-        <v>146</v>
-      </c>
-      <c r="F98" t="s">
-        <v>147</v>
-      </c>
-      <c r="G98" t="s">
-        <v>116</v>
-      </c>
-      <c r="H98" t="s">
-        <v>147</v>
-      </c>
-      <c r="I98" t="s">
-        <v>95</v>
-      </c>
-      <c r="J98" t="s">
-        <v>147</v>
-      </c>
-      <c r="K98" t="s">
-        <v>95</v>
-      </c>
-      <c r="L98" t="s">
-        <v>147</v>
-      </c>
-      <c r="M98" t="s">
-        <v>139</v>
-      </c>
-      <c r="N98"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>82</v>
-      </c>
-      <c r="B99" t="s">
-        <v>4</v>
-      </c>
-      <c r="C99" t="s">
-        <v>97</v>
-      </c>
-      <c r="D99" t="s">
-        <v>145</v>
-      </c>
-      <c r="E99" t="s">
-        <v>99</v>
-      </c>
-      <c r="F99" t="s">
-        <v>147</v>
-      </c>
-      <c r="G99" t="s">
-        <v>90</v>
-      </c>
-      <c r="H99" t="s">
-        <v>147</v>
-      </c>
-      <c r="I99" t="s">
-        <v>95</v>
-      </c>
-      <c r="J99" t="s">
-        <v>147</v>
-      </c>
-      <c r="K99" t="s">
-        <v>90</v>
-      </c>
-      <c r="L99" t="s">
-        <v>147</v>
-      </c>
-      <c r="M99" t="s">
-        <v>96</v>
-      </c>
-      <c r="N99"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>82</v>
-      </c>
-      <c r="B100" t="s">
-        <v>30</v>
-      </c>
-      <c r="C100" t="s">
-        <v>97</v>
-      </c>
-      <c r="D100" t="s">
-        <v>114</v>
-      </c>
-      <c r="E100" t="s">
-        <v>99</v>
-      </c>
-      <c r="F100" t="s">
-        <v>115</v>
-      </c>
-      <c r="G100" t="s">
-        <v>90</v>
-      </c>
-      <c r="H100" t="s">
-        <v>115</v>
-      </c>
-      <c r="I100" t="s">
-        <v>95</v>
-      </c>
-      <c r="J100" t="s">
-        <v>115</v>
-      </c>
-      <c r="K100" t="s">
-        <v>90</v>
-      </c>
-      <c r="L100" t="s">
-        <v>115</v>
-      </c>
-      <c r="M100" t="s">
-        <v>96</v>
-      </c>
-      <c r="N100"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>82</v>
-      </c>
-      <c r="B101" t="s">
-        <v>28</v>
-      </c>
-      <c r="C101" t="s">
-        <v>97</v>
-      </c>
-      <c r="D101" t="s">
-        <v>98</v>
-      </c>
-      <c r="E101" t="s">
-        <v>99</v>
-      </c>
-      <c r="F101" t="s">
-        <v>100</v>
-      </c>
-      <c r="G101" t="s">
-        <v>90</v>
-      </c>
-      <c r="H101" t="s">
-        <v>100</v>
-      </c>
-      <c r="I101" t="s">
-        <v>95</v>
-      </c>
-      <c r="J101" t="s">
-        <v>100</v>
-      </c>
-      <c r="K101" t="s">
-        <v>90</v>
-      </c>
-      <c r="L101" t="s">
-        <v>100</v>
-      </c>
-      <c r="M101" t="s">
-        <v>96</v>
-      </c>
-      <c r="N101"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>82</v>
-      </c>
-      <c r="B102" t="s">
-        <v>33</v>
-      </c>
-      <c r="C102" t="s">
-        <v>148</v>
-      </c>
-      <c r="D102" t="s">
-        <v>149</v>
-      </c>
-      <c r="E102" t="s">
-        <v>150</v>
-      </c>
-      <c r="F102" t="s">
-        <v>151</v>
-      </c>
-      <c r="G102" t="s">
-        <v>90</v>
-      </c>
-      <c r="H102" t="s">
-        <v>151</v>
-      </c>
-      <c r="I102" t="s">
-        <v>90</v>
-      </c>
-      <c r="J102" t="s">
-        <v>151</v>
-      </c>
-      <c r="K102" t="s">
-        <v>139</v>
-      </c>
-      <c r="L102" t="s">
-        <v>151</v>
-      </c>
-      <c r="M102" t="s">
-        <v>152</v>
-      </c>
-      <c r="N102"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>82</v>
-      </c>
-      <c r="B103" t="s">
-        <v>41</v>
-      </c>
-      <c r="C103" t="s">
-        <v>153</v>
-      </c>
-      <c r="D103" t="s">
-        <v>154</v>
-      </c>
-      <c r="E103" t="s">
-        <v>155</v>
-      </c>
-      <c r="F103" t="s">
-        <v>156</v>
-      </c>
-      <c r="G103" t="s">
-        <v>132</v>
-      </c>
-      <c r="H103" t="s">
-        <v>156</v>
-      </c>
-      <c r="I103" t="s">
-        <v>139</v>
-      </c>
-      <c r="J103" t="s">
-        <v>156</v>
-      </c>
-      <c r="K103" t="s">
-        <v>139</v>
-      </c>
-      <c r="L103" t="s">
-        <v>156</v>
-      </c>
-      <c r="M103" t="s">
-        <v>157</v>
-      </c>
-      <c r="N103"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>82</v>
-      </c>
-      <c r="B104" t="s">
-        <v>37</v>
-      </c>
-      <c r="C104" t="s">
-        <v>148</v>
-      </c>
-      <c r="D104" t="s">
-        <v>149</v>
-      </c>
-      <c r="E104" t="s">
-        <v>150</v>
-      </c>
-      <c r="F104" t="s">
-        <v>151</v>
-      </c>
-      <c r="G104" t="s">
-        <v>90</v>
-      </c>
-      <c r="H104" t="s">
-        <v>151</v>
-      </c>
-      <c r="I104" t="s">
-        <v>90</v>
-      </c>
-      <c r="J104" t="s">
-        <v>151</v>
-      </c>
-      <c r="K104" t="s">
-        <v>139</v>
-      </c>
-      <c r="L104" t="s">
-        <v>151</v>
-      </c>
-      <c r="M104" t="s">
-        <v>90</v>
-      </c>
-      <c r="N104"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>82</v>
-      </c>
-      <c r="B105" t="s">
-        <v>39</v>
-      </c>
-      <c r="C105" t="s">
-        <v>148</v>
-      </c>
-      <c r="D105" t="s">
-        <v>158</v>
-      </c>
-      <c r="E105" t="s">
-        <v>150</v>
-      </c>
-      <c r="F105" t="s">
-        <v>159</v>
-      </c>
-      <c r="G105" t="s">
-        <v>90</v>
-      </c>
-      <c r="H105" t="s">
-        <v>159</v>
-      </c>
-      <c r="I105" t="s">
-        <v>90</v>
-      </c>
-      <c r="J105" t="s">
-        <v>159</v>
-      </c>
-      <c r="K105" t="s">
-        <v>139</v>
-      </c>
-      <c r="L105" t="s">
-        <v>159</v>
-      </c>
-      <c r="M105" t="s">
-        <v>139</v>
-      </c>
-      <c r="N105"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>82</v>
-      </c>
-      <c r="B106" t="s">
-        <v>38</v>
-      </c>
-      <c r="C106" t="s">
-        <v>148</v>
-      </c>
-      <c r="D106" t="s">
-        <v>158</v>
-      </c>
-      <c r="E106" t="s">
-        <v>150</v>
-      </c>
-      <c r="F106" t="s">
-        <v>159</v>
-      </c>
-      <c r="G106" t="s">
-        <v>90</v>
-      </c>
-      <c r="H106" t="s">
-        <v>159</v>
-      </c>
-      <c r="I106" t="s">
-        <v>90</v>
-      </c>
-      <c r="J106" t="s">
-        <v>159</v>
-      </c>
-      <c r="K106" t="s">
-        <v>139</v>
-      </c>
-      <c r="L106" t="s">
-        <v>159</v>
-      </c>
-      <c r="M106" t="s">
-        <v>139</v>
-      </c>
-      <c r="N106"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>42</v>
-      </c>
-      <c r="B107" t="s">
-        <v>82</v>
-      </c>
-      <c r="C107" t="s">
-        <v>83</v>
-      </c>
-      <c r="D107" t="s">
-        <v>83</v>
-      </c>
-      <c r="E107" t="s">
-        <v>83</v>
-      </c>
-      <c r="F107" t="s">
-        <v>83</v>
-      </c>
-      <c r="G107" t="s">
-        <v>82</v>
-      </c>
-      <c r="H107" t="s">
-        <v>82</v>
-      </c>
-      <c r="I107" t="s">
-        <v>82</v>
-      </c>
-      <c r="J107" t="s">
-        <v>82</v>
-      </c>
-      <c r="K107" t="s">
-        <v>82</v>
-      </c>
-      <c r="L107" t="s">
-        <v>82</v>
-      </c>
-      <c r="M107" t="s">
-        <v>82</v>
-      </c>
-      <c r="N107"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>82</v>
-      </c>
-      <c r="B108" t="s">
-        <v>3</v>
-      </c>
-      <c r="C108" t="s">
-        <v>126</v>
-      </c>
-      <c r="D108" t="s">
-        <v>160</v>
-      </c>
-      <c r="E108" t="s">
-        <v>127</v>
-      </c>
-      <c r="F108" t="s">
-        <v>161</v>
-      </c>
-      <c r="G108" t="s">
-        <v>129</v>
-      </c>
-      <c r="H108" t="s">
-        <v>161</v>
-      </c>
-      <c r="I108" t="s">
-        <v>128</v>
-      </c>
-      <c r="J108" t="s">
-        <v>161</v>
-      </c>
-      <c r="K108" t="s">
-        <v>104</v>
-      </c>
-      <c r="L108" t="s">
-        <v>161</v>
-      </c>
-      <c r="M108" t="s">
-        <v>162</v>
-      </c>
-      <c r="N108"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>82</v>
-      </c>
-      <c r="B109" t="s">
-        <v>40</v>
-      </c>
-      <c r="C109" t="s">
-        <v>126</v>
-      </c>
-      <c r="D109" t="s">
-        <v>163</v>
-      </c>
-      <c r="E109" t="s">
-        <v>127</v>
-      </c>
-      <c r="F109" t="s">
-        <v>164</v>
-      </c>
-      <c r="G109" t="s">
-        <v>129</v>
-      </c>
-      <c r="H109" t="s">
-        <v>164</v>
-      </c>
-      <c r="I109" t="s">
-        <v>128</v>
-      </c>
-      <c r="J109" t="s">
-        <v>164</v>
-      </c>
-      <c r="K109" t="s">
-        <v>104</v>
-      </c>
-      <c r="L109" t="s">
-        <v>164</v>
-      </c>
-      <c r="M109" t="s">
-        <v>165</v>
-      </c>
-      <c r="N109"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>82</v>
-      </c>
-      <c r="B110" t="s">
-        <v>43</v>
-      </c>
-      <c r="C110" t="s">
-        <v>126</v>
-      </c>
-      <c r="D110" t="s">
-        <v>163</v>
-      </c>
-      <c r="E110" t="s">
-        <v>127</v>
-      </c>
-      <c r="F110" t="s">
-        <v>164</v>
-      </c>
-      <c r="G110" t="s">
-        <v>129</v>
-      </c>
-      <c r="H110" t="s">
-        <v>164</v>
-      </c>
-      <c r="I110" t="s">
-        <v>128</v>
-      </c>
-      <c r="J110" t="s">
-        <v>164</v>
-      </c>
-      <c r="K110" t="s">
-        <v>104</v>
-      </c>
-      <c r="L110" t="s">
-        <v>164</v>
-      </c>
-      <c r="M110" t="s">
-        <v>166</v>
-      </c>
-      <c r="N110"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>82</v>
-      </c>
-      <c r="B111" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" t="s">
-        <v>126</v>
-      </c>
-      <c r="D111" t="s">
-        <v>158</v>
-      </c>
-      <c r="E111" t="s">
-        <v>127</v>
-      </c>
-      <c r="F111" t="s">
-        <v>159</v>
-      </c>
-      <c r="G111" t="s">
-        <v>129</v>
-      </c>
-      <c r="H111" t="s">
-        <v>159</v>
-      </c>
-      <c r="I111" t="s">
-        <v>128</v>
-      </c>
-      <c r="J111" t="s">
-        <v>159</v>
-      </c>
-      <c r="K111" t="s">
-        <v>104</v>
-      </c>
-      <c r="L111" t="s">
-        <v>159</v>
-      </c>
-      <c r="M111" t="s">
-        <v>112</v>
-      </c>
-      <c r="N111"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>82</v>
-      </c>
-      <c r="B112" t="s">
-        <v>30</v>
-      </c>
-      <c r="C112" t="s">
-        <v>126</v>
-      </c>
-      <c r="D112" t="s">
-        <v>167</v>
-      </c>
-      <c r="E112" t="s">
-        <v>127</v>
-      </c>
-      <c r="F112" t="s">
-        <v>168</v>
-      </c>
-      <c r="G112" t="s">
-        <v>129</v>
-      </c>
-      <c r="H112" t="s">
-        <v>168</v>
-      </c>
-      <c r="I112" t="s">
-        <v>128</v>
-      </c>
-      <c r="J112" t="s">
-        <v>168</v>
-      </c>
-      <c r="K112" t="s">
-        <v>104</v>
-      </c>
-      <c r="L112" t="s">
-        <v>168</v>
-      </c>
-      <c r="M112" t="s">
-        <v>169</v>
-      </c>
-      <c r="N112"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>82</v>
-      </c>
-      <c r="B113" t="s">
-        <v>30</v>
-      </c>
-      <c r="C113" t="s">
-        <v>126</v>
-      </c>
-      <c r="D113" t="s">
-        <v>170</v>
-      </c>
-      <c r="E113" t="s">
-        <v>127</v>
-      </c>
-      <c r="F113" t="s">
-        <v>171</v>
-      </c>
-      <c r="G113" t="s">
-        <v>129</v>
-      </c>
-      <c r="H113" t="s">
-        <v>171</v>
-      </c>
-      <c r="I113" t="s">
-        <v>128</v>
-      </c>
-      <c r="J113" t="s">
-        <v>171</v>
-      </c>
-      <c r="K113" t="s">
-        <v>104</v>
-      </c>
-      <c r="L113" t="s">
-        <v>171</v>
-      </c>
-      <c r="M113" t="s">
-        <v>90</v>
-      </c>
-      <c r="N113"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>82</v>
-      </c>
-      <c r="B114" t="s">
-        <v>28</v>
-      </c>
-      <c r="C114" t="s">
-        <v>126</v>
-      </c>
-      <c r="D114" t="s">
-        <v>172</v>
-      </c>
-      <c r="E114" t="s">
-        <v>127</v>
-      </c>
-      <c r="F114" t="s">
-        <v>173</v>
-      </c>
-      <c r="G114" t="s">
-        <v>129</v>
-      </c>
-      <c r="H114" t="s">
-        <v>173</v>
-      </c>
-      <c r="I114" t="s">
-        <v>128</v>
-      </c>
-      <c r="J114" t="s">
-        <v>173</v>
-      </c>
-      <c r="K114" t="s">
-        <v>104</v>
-      </c>
-      <c r="L114" t="s">
-        <v>173</v>
-      </c>
-      <c r="M114" t="s">
-        <v>174</v>
-      </c>
-      <c r="N114"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>82</v>
-      </c>
-      <c r="B115" t="s">
-        <v>5</v>
-      </c>
-      <c r="C115" t="s">
-        <v>126</v>
-      </c>
-      <c r="D115" t="s">
-        <v>133</v>
-      </c>
-      <c r="E115" t="s">
-        <v>127</v>
-      </c>
-      <c r="F115" t="s">
-        <v>134</v>
-      </c>
-      <c r="G115" t="s">
-        <v>129</v>
-      </c>
-      <c r="H115" t="s">
-        <v>134</v>
-      </c>
-      <c r="I115" t="s">
-        <v>128</v>
-      </c>
-      <c r="J115" t="s">
-        <v>134</v>
-      </c>
-      <c r="K115" t="s">
-        <v>104</v>
-      </c>
-      <c r="L115" t="s">
-        <v>134</v>
-      </c>
-      <c r="M115" s="111" t="s">
-        <v>175</v>
-      </c>
-      <c r="N115" s="103"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>82</v>
-      </c>
-      <c r="B116" t="s">
-        <v>6</v>
-      </c>
-      <c r="C116" t="s">
-        <v>126</v>
-      </c>
-      <c r="D116" t="s">
-        <v>163</v>
-      </c>
-      <c r="E116" t="s">
-        <v>127</v>
-      </c>
-      <c r="F116" t="s">
-        <v>164</v>
-      </c>
-      <c r="G116" t="s">
-        <v>129</v>
-      </c>
-      <c r="H116" t="s">
-        <v>164</v>
-      </c>
-      <c r="I116" t="s">
-        <v>128</v>
-      </c>
-      <c r="J116" t="s">
-        <v>164</v>
-      </c>
-      <c r="K116" t="s">
-        <v>104</v>
-      </c>
-      <c r="L116" t="s">
-        <v>164</v>
-      </c>
-      <c r="M116" t="s">
-        <v>128</v>
-      </c>
-      <c r="N116"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>82</v>
-      </c>
-      <c r="B117" t="s">
-        <v>31</v>
-      </c>
-      <c r="C117" t="s">
-        <v>126</v>
-      </c>
-      <c r="D117" t="s">
-        <v>170</v>
-      </c>
-      <c r="E117" t="s">
-        <v>127</v>
-      </c>
-      <c r="F117" t="s">
-        <v>171</v>
-      </c>
-      <c r="G117" t="s">
-        <v>129</v>
-      </c>
-      <c r="H117" t="s">
-        <v>171</v>
-      </c>
-      <c r="I117" t="s">
-        <v>128</v>
-      </c>
-      <c r="J117" t="s">
-        <v>171</v>
-      </c>
-      <c r="K117" t="s">
-        <v>104</v>
-      </c>
-      <c r="L117" t="s">
-        <v>171</v>
-      </c>
-      <c r="M117" t="s">
-        <v>176</v>
-      </c>
-      <c r="N117"/>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>82</v>
-      </c>
-      <c r="B118" t="s">
-        <v>44</v>
-      </c>
-      <c r="C118" t="s">
-        <v>126</v>
-      </c>
-      <c r="D118" t="s">
-        <v>177</v>
-      </c>
-      <c r="E118" t="s">
-        <v>127</v>
-      </c>
-      <c r="F118" t="s">
-        <v>116</v>
-      </c>
-      <c r="G118" t="s">
-        <v>129</v>
-      </c>
-      <c r="H118" t="s">
-        <v>116</v>
-      </c>
-      <c r="I118" t="s">
-        <v>128</v>
-      </c>
-      <c r="J118" t="s">
-        <v>116</v>
-      </c>
-      <c r="K118" t="s">
-        <v>104</v>
-      </c>
-      <c r="L118" t="s">
-        <v>116</v>
-      </c>
-      <c r="M118" t="s">
-        <v>178</v>
-      </c>
-      <c r="N118"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>82</v>
-      </c>
-      <c r="B119" t="s">
-        <v>45</v>
-      </c>
-      <c r="C119" t="s">
-        <v>126</v>
-      </c>
-      <c r="D119" t="s">
-        <v>170</v>
-      </c>
-      <c r="E119" t="s">
-        <v>127</v>
-      </c>
-      <c r="F119" t="s">
-        <v>171</v>
-      </c>
-      <c r="G119" t="s">
-        <v>129</v>
-      </c>
-      <c r="H119" t="s">
-        <v>171</v>
-      </c>
-      <c r="I119" t="s">
-        <v>128</v>
-      </c>
-      <c r="J119" t="s">
-        <v>171</v>
-      </c>
-      <c r="K119" t="s">
-        <v>104</v>
-      </c>
-      <c r="L119" t="s">
-        <v>171</v>
-      </c>
-      <c r="M119" t="s">
-        <v>179</v>
-      </c>
-      <c r="N119"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>82</v>
-      </c>
-      <c r="B120" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" t="s">
-        <v>126</v>
-      </c>
-      <c r="D120" t="s">
-        <v>158</v>
-      </c>
-      <c r="E120" t="s">
-        <v>127</v>
-      </c>
-      <c r="F120" t="s">
-        <v>159</v>
-      </c>
-      <c r="G120" t="s">
-        <v>129</v>
-      </c>
-      <c r="H120" t="s">
-        <v>159</v>
-      </c>
-      <c r="I120" t="s">
-        <v>128</v>
-      </c>
-      <c r="J120" t="s">
-        <v>159</v>
-      </c>
-      <c r="K120" t="s">
-        <v>104</v>
-      </c>
-      <c r="L120" t="s">
-        <v>159</v>
-      </c>
-      <c r="M120" t="s">
-        <v>180</v>
-      </c>
-      <c r="N120"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>82</v>
-      </c>
-      <c r="B121" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" t="s">
-        <v>126</v>
-      </c>
-      <c r="D121" t="s">
-        <v>170</v>
-      </c>
-      <c r="E121" t="s">
-        <v>127</v>
-      </c>
-      <c r="F121" t="s">
-        <v>171</v>
-      </c>
-      <c r="G121" t="s">
-        <v>129</v>
-      </c>
-      <c r="H121" t="s">
-        <v>171</v>
-      </c>
-      <c r="I121" t="s">
-        <v>128</v>
-      </c>
-      <c r="J121" t="s">
-        <v>171</v>
-      </c>
-      <c r="K121" t="s">
-        <v>104</v>
-      </c>
-      <c r="L121" t="s">
-        <v>171</v>
-      </c>
-      <c r="M121" t="s">
-        <v>129</v>
-      </c>
-      <c r="N121"/>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>82</v>
-      </c>
-      <c r="B122" t="s">
-        <v>32</v>
-      </c>
-      <c r="C122" t="s">
-        <v>126</v>
-      </c>
-      <c r="D122" t="s">
-        <v>170</v>
-      </c>
-      <c r="E122" t="s">
-        <v>127</v>
-      </c>
-      <c r="F122" t="s">
-        <v>171</v>
-      </c>
-      <c r="G122" t="s">
-        <v>129</v>
-      </c>
-      <c r="H122" t="s">
-        <v>171</v>
-      </c>
-      <c r="I122" t="s">
-        <v>128</v>
-      </c>
-      <c r="J122" t="s">
-        <v>171</v>
-      </c>
-      <c r="K122" t="s">
-        <v>104</v>
-      </c>
-      <c r="L122" t="s">
-        <v>171</v>
-      </c>
-      <c r="M122" t="s">
-        <v>181</v>
-      </c>
-      <c r="N122"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>82</v>
-      </c>
-      <c r="B123" t="s">
-        <v>15</v>
-      </c>
-      <c r="C123" t="s">
-        <v>126</v>
-      </c>
-      <c r="D123" t="s">
-        <v>182</v>
-      </c>
-      <c r="E123" t="s">
-        <v>127</v>
-      </c>
-      <c r="F123" t="s">
-        <v>183</v>
-      </c>
-      <c r="G123" t="s">
-        <v>129</v>
-      </c>
-      <c r="H123" t="s">
-        <v>183</v>
-      </c>
-      <c r="I123" t="s">
-        <v>128</v>
-      </c>
-      <c r="J123" t="s">
-        <v>183</v>
-      </c>
-      <c r="K123" t="s">
-        <v>104</v>
-      </c>
-      <c r="L123" t="s">
-        <v>183</v>
-      </c>
-      <c r="M123" t="s">
-        <v>162</v>
-      </c>
-      <c r="N123"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>82</v>
-      </c>
-      <c r="B124" t="s">
-        <v>17</v>
-      </c>
-      <c r="C124" t="s">
-        <v>126</v>
-      </c>
-      <c r="D124" t="s">
-        <v>149</v>
-      </c>
-      <c r="E124" t="s">
-        <v>127</v>
-      </c>
-      <c r="F124" t="s">
-        <v>151</v>
-      </c>
-      <c r="G124" t="s">
-        <v>129</v>
-      </c>
-      <c r="H124" t="s">
-        <v>151</v>
-      </c>
-      <c r="I124" t="s">
-        <v>128</v>
-      </c>
-      <c r="J124" t="s">
-        <v>151</v>
-      </c>
-      <c r="K124" t="s">
-        <v>104</v>
-      </c>
-      <c r="L124" t="s">
-        <v>151</v>
-      </c>
-      <c r="M124" t="s">
-        <v>165</v>
-      </c>
-      <c r="N124"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>82</v>
-      </c>
-      <c r="B125" t="s">
-        <v>46</v>
-      </c>
-      <c r="C125" t="s">
-        <v>126</v>
-      </c>
-      <c r="D125" t="s">
-        <v>184</v>
-      </c>
-      <c r="E125" t="s">
-        <v>127</v>
-      </c>
-      <c r="F125" t="s">
-        <v>185</v>
-      </c>
-      <c r="G125" t="s">
-        <v>129</v>
-      </c>
-      <c r="H125" t="s">
-        <v>185</v>
-      </c>
-      <c r="I125" t="s">
-        <v>128</v>
-      </c>
-      <c r="J125" t="s">
-        <v>185</v>
-      </c>
-      <c r="K125" t="s">
-        <v>104</v>
-      </c>
-      <c r="L125" t="s">
-        <v>185</v>
-      </c>
-      <c r="M125" t="s">
-        <v>186</v>
-      </c>
-      <c r="N125"/>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>82</v>
-      </c>
-      <c r="B126" t="s">
-        <v>47</v>
-      </c>
-      <c r="C126" t="s">
-        <v>126</v>
-      </c>
-      <c r="D126" t="s">
-        <v>187</v>
-      </c>
-      <c r="E126" t="s">
-        <v>127</v>
-      </c>
-      <c r="F126" t="s">
-        <v>188</v>
-      </c>
-      <c r="G126" t="s">
-        <v>129</v>
-      </c>
-      <c r="H126" t="s">
-        <v>188</v>
-      </c>
-      <c r="I126" t="s">
-        <v>128</v>
-      </c>
-      <c r="J126" t="s">
-        <v>188</v>
-      </c>
-      <c r="K126" t="s">
-        <v>104</v>
-      </c>
-      <c r="L126" t="s">
-        <v>188</v>
-      </c>
-      <c r="M126" t="s">
-        <v>189</v>
-      </c>
-      <c r="N126"/>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>82</v>
-      </c>
-      <c r="B127" t="s">
-        <v>18</v>
-      </c>
-      <c r="C127" t="s">
-        <v>126</v>
-      </c>
-      <c r="D127" t="s">
-        <v>167</v>
-      </c>
-      <c r="E127" t="s">
-        <v>127</v>
-      </c>
-      <c r="F127" t="s">
-        <v>168</v>
-      </c>
-      <c r="G127" t="s">
-        <v>129</v>
-      </c>
-      <c r="H127" t="s">
-        <v>168</v>
-      </c>
-      <c r="I127" t="s">
-        <v>128</v>
-      </c>
-      <c r="J127" t="s">
-        <v>168</v>
-      </c>
-      <c r="K127" t="s">
-        <v>104</v>
-      </c>
-      <c r="L127" t="s">
-        <v>168</v>
-      </c>
-      <c r="M127" t="s">
-        <v>190</v>
-      </c>
-      <c r="N127"/>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>82</v>
-      </c>
-      <c r="B128" t="s">
-        <v>22</v>
-      </c>
-      <c r="C128" t="s">
-        <v>126</v>
-      </c>
-      <c r="D128" t="s">
-        <v>191</v>
-      </c>
-      <c r="E128" t="s">
-        <v>127</v>
-      </c>
-      <c r="F128" t="s">
-        <v>192</v>
-      </c>
-      <c r="G128" t="s">
-        <v>129</v>
-      </c>
-      <c r="H128" t="s">
-        <v>192</v>
-      </c>
-      <c r="I128" t="s">
-        <v>128</v>
-      </c>
-      <c r="J128" t="s">
-        <v>192</v>
-      </c>
-      <c r="K128" t="s">
-        <v>104</v>
-      </c>
-      <c r="L128" t="s">
-        <v>192</v>
-      </c>
-      <c r="M128" t="s">
-        <v>190</v>
-      </c>
-      <c r="N128"/>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>82</v>
-      </c>
-      <c r="B129" t="s">
-        <v>34</v>
-      </c>
-      <c r="C129" t="s">
-        <v>126</v>
-      </c>
-      <c r="D129" t="s">
-        <v>193</v>
-      </c>
-      <c r="E129" t="s">
-        <v>127</v>
-      </c>
-      <c r="F129" t="s">
-        <v>194</v>
-      </c>
-      <c r="G129" t="s">
-        <v>129</v>
-      </c>
-      <c r="H129" t="s">
-        <v>194</v>
-      </c>
-      <c r="I129" t="s">
-        <v>128</v>
-      </c>
-      <c r="J129" t="s">
-        <v>194</v>
-      </c>
-      <c r="K129" t="s">
-        <v>104</v>
-      </c>
-      <c r="L129" t="s">
-        <v>194</v>
-      </c>
-      <c r="M129" t="s">
-        <v>111</v>
-      </c>
-      <c r="N129"/>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>82</v>
-      </c>
-      <c r="B130" t="s">
-        <v>9</v>
-      </c>
-      <c r="C130" t="s">
-        <v>126</v>
-      </c>
-      <c r="D130" t="s">
-        <v>177</v>
-      </c>
-      <c r="E130" t="s">
-        <v>127</v>
-      </c>
-      <c r="F130" t="s">
-        <v>116</v>
-      </c>
-      <c r="G130" t="s">
-        <v>129</v>
-      </c>
-      <c r="H130" t="s">
-        <v>116</v>
-      </c>
-      <c r="I130" t="s">
-        <v>128</v>
-      </c>
-      <c r="J130" t="s">
-        <v>116</v>
-      </c>
-      <c r="K130" t="s">
-        <v>104</v>
-      </c>
-      <c r="L130" t="s">
-        <v>116</v>
-      </c>
-      <c r="M130" t="s">
-        <v>139</v>
-      </c>
-      <c r="N130"/>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>82</v>
-      </c>
-      <c r="B131" t="s">
-        <v>35</v>
-      </c>
-      <c r="C131" t="s">
-        <v>126</v>
-      </c>
-      <c r="D131" t="s">
-        <v>195</v>
-      </c>
-      <c r="E131" t="s">
-        <v>127</v>
-      </c>
-      <c r="F131" t="s">
-        <v>196</v>
-      </c>
-      <c r="G131" t="s">
-        <v>129</v>
-      </c>
-      <c r="H131" t="s">
-        <v>196</v>
-      </c>
-      <c r="I131" t="s">
-        <v>128</v>
-      </c>
-      <c r="J131" t="s">
-        <v>196</v>
-      </c>
-      <c r="K131" t="s">
-        <v>104</v>
-      </c>
-      <c r="L131" t="s">
-        <v>196</v>
-      </c>
-      <c r="M131" t="s">
-        <v>197</v>
-      </c>
-      <c r="N131"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1"/>
@@ -9167,33 +6534,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A2:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="47.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="48.5703125" customWidth="1"/>
-    <col min="9" max="9" width="64.28515625" customWidth="1"/>
+    <col min="1" max="1" width="50.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="47.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="48.5546875" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="119"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="68" t="s">
@@ -9232,31 +6599,31 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="96"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="119"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="F10" s="97" t="s">
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="F10" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="69" t="s">
@@ -9273,148 +6640,232 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="I12" s="70"/>
+      <c r="A12" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12"/>
+      <c r="D12" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12"/>
+      <c r="I12" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
-      <c r="A13" s="71"/>
+      <c r="A13" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13"/>
       <c r="D13" s="71"/>
       <c r="F13" s="71"/>
-      <c r="I13" s="71"/>
+      <c r="I13" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="71"/>
       <c r="D14" s="71"/>
       <c r="F14" s="71"/>
-      <c r="I14" s="71"/>
+      <c r="I14" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="71"/>
       <c r="D15" s="71"/>
       <c r="F15" s="71"/>
-      <c r="I15" s="71"/>
+      <c r="I15" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="71"/>
       <c r="D16" s="71"/>
       <c r="F16" s="71"/>
-      <c r="I16" s="71"/>
+      <c r="I16" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="71"/>
       <c r="D17" s="71"/>
       <c r="F17" s="71"/>
-      <c r="I17" s="71"/>
+      <c r="I17" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="71"/>
       <c r="D18" s="71"/>
       <c r="F18" s="71"/>
-      <c r="I18" s="71"/>
+      <c r="I18" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="71"/>
       <c r="D19" s="71"/>
       <c r="F19" s="71"/>
-      <c r="I19" s="71"/>
+      <c r="I19" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="71"/>
       <c r="D20" s="71"/>
       <c r="F20" s="71"/>
-      <c r="I20" s="71"/>
+      <c r="I20" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="71"/>
       <c r="D21" s="71"/>
       <c r="F21" s="71"/>
-      <c r="I21" s="71"/>
+      <c r="I21" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="A22" s="71"/>
       <c r="D22" s="71"/>
       <c r="F22" s="71"/>
-      <c r="I22" s="71"/>
+      <c r="I22" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="A23" s="71"/>
       <c r="D23" s="71"/>
       <c r="F23" s="71"/>
-      <c r="I23" s="71"/>
+      <c r="I23" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="71"/>
       <c r="D24" s="71"/>
       <c r="F24" s="71"/>
-      <c r="I24" s="71"/>
+      <c r="I24" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
       <c r="A25" s="71"/>
       <c r="D25" s="71"/>
       <c r="F25" s="71"/>
-      <c r="I25" s="71"/>
+      <c r="I25" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1">
       <c r="A26" s="71"/>
       <c r="D26" s="71"/>
       <c r="F26" s="71"/>
-      <c r="I26" s="71"/>
+      <c r="I26" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1">
       <c r="A27" s="71"/>
       <c r="D27" s="71"/>
       <c r="F27" s="71"/>
-      <c r="I27" s="71"/>
+      <c r="I27" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
       <c r="A28" s="71"/>
       <c r="D28" s="71"/>
       <c r="F28" s="71"/>
-      <c r="I28" s="71"/>
+      <c r="I28" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
       <c r="A29" s="71"/>
       <c r="D29" s="72"/>
       <c r="F29" s="72"/>
-      <c r="I29" s="71"/>
+      <c r="I29" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1">
       <c r="A30" s="71"/>
       <c r="D30" s="72"/>
       <c r="F30" s="72"/>
-      <c r="I30" s="71"/>
+      <c r="I30" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1">
       <c r="A31" s="71"/>
       <c r="D31" s="72"/>
       <c r="F31" s="72"/>
-      <c r="I31" s="71"/>
+      <c r="I31" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1">
       <c r="A32" s="71"/>
       <c r="D32" s="72"/>
       <c r="F32" s="72"/>
-      <c r="I32" s="71"/>
+      <c r="I32" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32"/>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1">
       <c r="A33" s="71"/>
       <c r="D33" s="72"/>
       <c r="F33" s="72"/>
-      <c r="I33" s="71"/>
+      <c r="I33" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1">
       <c r="A34" s="71"/>
       <c r="D34" s="72"/>
       <c r="F34" s="72"/>
-      <c r="I34" s="71"/>
+      <c r="I34" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34"/>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1">
       <c r="A35" s="71"/>
       <c r="D35" s="72"/>
       <c r="F35" s="72"/>
-      <c r="I35" s="71"/>
+      <c r="I35" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35"/>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1">
       <c r="A36" s="73"/>
@@ -9426,17 +6877,17 @@
       <c r="I37" s="74"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="94" t="s">
+      <c r="A38" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="95"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="96" t="s">
+      <c r="B38" s="118"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="118"/>
+      <c r="G38" s="118"/>
+      <c r="H38" s="118"/>
+      <c r="I38" s="119" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9446,49 +6897,79 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1">
-      <c r="A41" s="70"/>
+      <c r="A41" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="B41"/>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1">
-      <c r="A42" s="71"/>
+      <c r="A42" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="B42"/>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1">
-      <c r="A43" s="71"/>
+      <c r="A43" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43"/>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1">
-      <c r="A44" s="71"/>
+      <c r="A44" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44"/>
     </row>
     <row r="45" spans="1:9" ht="15" customHeight="1">
-      <c r="A45" s="71"/>
+      <c r="A45" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="B45"/>
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1">
-      <c r="A46" s="71"/>
+      <c r="A46" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46"/>
     </row>
     <row r="47" spans="1:9" ht="15" customHeight="1">
-      <c r="A47" s="71"/>
+      <c r="A47" s="71" t="s">
+        <v>195</v>
+      </c>
+      <c r="B47"/>
     </row>
     <row r="48" spans="1:9" ht="15" customHeight="1">
-      <c r="A48" s="71"/>
+      <c r="A48" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="B48"/>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1">
-      <c r="A49" s="71"/>
+      <c r="A49" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49"/>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1">
-      <c r="A50" s="83"/>
+      <c r="A50" s="83" t="s">
+        <v>197</v>
+      </c>
+      <c r="B50"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="94" t="s">
+      <c r="A52" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="95"/>
-      <c r="C52" s="95"/>
-      <c r="D52" s="95"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="95"/>
-      <c r="G52" s="95"/>
-      <c r="H52" s="95"/>
-      <c r="I52" s="96"/>
-    </row>
-    <row r="54" spans="1:9" ht="45">
+      <c r="B52" s="118"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="118"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="119"/>
+    </row>
+    <row r="54" spans="1:9" ht="43.2">
       <c r="A54" s="75" t="s">
         <v>58</v>
       </c>
@@ -9500,14 +6981,28 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="68"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="68"/>
+      <c r="A55" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="68"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="68"/>
+      <c r="A56" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="68"/>
